--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437140.936327956</v>
+        <v>437314.3269888569</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437306</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6440826.904526159</v>
+        <v>6271630.922856246</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80.54362419335578</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -674,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>193.5373154318083</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092309</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>2.631299643330243</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -865,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>110.2139485182161</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>15.35607458685687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1069,10 +1071,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>60.42286073519961</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>112.9104992901435</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>168.4201475794463</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>112.4348987504501</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>392.564747250141</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>294.7228925766561</v>
       </c>
     </row>
     <row r="12">
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1576,13 +1578,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>89.93000512048133</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>294.7228925766561</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1774,16 +1776,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.206172513730557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1846,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>395.9611084486381</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5329869070202</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>180.4964215242403</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>147.6734181852339</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>46.22556813325669</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>63.65724648908541</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>398.1205593123169</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2324,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>126.5427015793254</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>61.29526474944497</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2491,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>10.67714500126629</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>86.14767836534818</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>163.1058707440497</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>11.09669848079335</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>333.1615823429641</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>392.4208820523424</v>
       </c>
     </row>
     <row r="30">
@@ -2959,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>135.4494077107873</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.42804917767877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>173.9626715512976</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>12.18473551758451</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103017</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>206.2273198392505</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.3430365919147</v>
+        <v>197.6281584307293</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>110.482758814076</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3503,19 +3505,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>388.2474135039329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>22.24184669399795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.2839811962483</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>131.8938132909812</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3752,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>7.156608158914921</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.63283972944721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>251.5637456496635</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>333.2626592949811</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4112,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>106.1331548337414</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C2" t="n">
-        <v>1481.356235076093</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D2" t="n">
-        <v>1481.356235076093</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E2" t="n">
-        <v>1067.01601959299</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F2" t="n">
-        <v>645.9856075466773</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>237.2573234395095</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4328,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4361,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
         <v>41.76508562960205</v>
@@ -4410,19 +4412,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L3" t="n">
+        <v>508.1659581184966</v>
+      </c>
+      <c r="M3" t="n">
+        <v>508.1659581184966</v>
+      </c>
+      <c r="N3" t="n">
         <v>1025.008892784822</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>1541.851827451147</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1541.851827451147</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.7202286601656</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>477.6268562218821</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>474.9689777942758</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
         <v>474.9689777942758</v>
@@ -4513,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X4" t="n">
-        <v>1061.155633665445</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.41993505421</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.180348417853</v>
+        <v>1575.990387702721</v>
       </c>
       <c r="C5" t="n">
-        <v>860.0557577311233</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="D5" t="n">
-        <v>860.0557577311233</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E5" t="n">
-        <v>860.0557577311233</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F5" t="n">
-        <v>439.0253456848109</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1937.462019822832</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1680.401528082343</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1680.401528082343</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1680.401528082343</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1680.401528082343</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.401528082343</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4656,10 +4658,10 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.7399750317509</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>373.6466025934674</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>373.6466025934674</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4750,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1510.130789588634</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1510.130789588634</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1510.130789588634</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.245044528156</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>957.1753800370305</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>957.1753800370305</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>732.4396814257952</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>927.2588741001834</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C8" t="n">
-        <v>927.2588741001834</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D8" t="n">
-        <v>522.794944193244</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E8" t="n">
-        <v>522.794944193244</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F8" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4841,13 +4843,13 @@
         <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.416726816583</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.416726816583</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1337.480053764673</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844747</v>
@@ -4869,16 +4871,16 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="J9" t="n">
         <v>41.76508562960205</v>
@@ -4890,16 +4892,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>187.8810127971431</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634683</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.5395825927103</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>588.5395825927103</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>588.5395825927103</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>588.5395825927103</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
         <v>474.9689777942758</v>
@@ -4987,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>588.5395825927103</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.5395825927103</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2088.254281480102</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.129690793372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D11" t="n">
-        <v>1273.665760886433</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
-        <v>859.3255454033297</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>438.2951333570172</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5042,49 +5044,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.411346813777</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
+        <v>41.76508562960218</v>
+      </c>
+      <c r="J12" t="n">
         <v>41.76508562960205</v>
       </c>
-      <c r="J12" t="n">
-        <v>234.5779431922353</v>
-      </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M12" t="n">
-        <v>704.7239474634683</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E13" t="n">
         <v>639.6001036836846</v>
@@ -5224,25 +5226,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W13" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1687.610883649055</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C14" t="n">
-        <v>1687.610883649055</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.772494638468</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E14" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F14" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5276,52 +5278,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>1209.69369432892</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>1726.536628995245</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X14" t="n">
-        <v>1687.610883649055</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y14" t="n">
-        <v>1687.610883649055</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="J15" t="n">
         <v>41.76508562960205</v>
@@ -5361,16 +5363,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.1705454383725</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
-        <v>362.1705454383725</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6759007612826</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U16" t="n">
-        <v>1565.905222135573</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.019477075095</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W16" t="n">
-        <v>1012.949812583969</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X16" t="n">
-        <v>774.6059504436522</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y16" t="n">
-        <v>549.8702518324169</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1277.096428763703</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C17" t="n">
-        <v>877.1357131590178</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D17" t="n">
-        <v>877.1357131590178</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E17" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5558,7 +5560,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>1687.317608428192</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K18" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M18" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N18" t="n">
-        <v>690.384199457534</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O18" t="n">
-        <v>1207.227134123859</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365.9220812062898</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C19" t="n">
-        <v>194.8287087680063</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H19" t="n">
         <v>41.76508562960205</v>
@@ -5695,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.701348351886</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V19" t="n">
-        <v>1016.701348351886</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W19" t="n">
-        <v>1016.701348351886</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X19" t="n">
-        <v>778.3574862115695</v>
+        <v>1202.452596429109</v>
       </c>
       <c r="Y19" t="n">
-        <v>553.6217876003342</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1020.335892547058</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C20" t="n">
-        <v>610.2113018603283</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D20" t="n">
-        <v>461.0462329863546</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E20" t="n">
-        <v>461.0462329863546</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F20" t="n">
-        <v>461.0462329863546</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>306.503420346941</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>306.503420346941</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L20" t="n">
-        <v>315.6797002975031</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M20" t="n">
-        <v>963.114317677439</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.548935057375</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O20" t="n">
-        <v>2254.17979147448</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P20" t="n">
-        <v>2254.17979147448</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2575.340798269772</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>2041.561788416207</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="W20" t="n">
-        <v>2232.137143094505</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="X20" t="n">
-        <v>1831.493745263458</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="Y20" t="n">
-        <v>1430.557072211548</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M21" t="n">
-        <v>52.31794887918674</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N21" t="n">
-        <v>699.7525662591225</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.256787557173</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.962680045703</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1034.858675720914</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C22" t="n">
-        <v>970.5584267420397</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>811.0637820649497</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>650.1529669332692</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5218410438605</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>318.2714499694039</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H22" t="n">
-        <v>168.6639947748606</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1496.444127175436</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1496.444127175436</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1496.444127175436</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U22" t="n">
-        <v>1496.444127175436</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V22" t="n">
-        <v>1222.558382114958</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W22" t="n">
-        <v>1222.558382114958</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.558382114958</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y22" t="n">
-        <v>1222.558382114958</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.126100861739</v>
+        <v>1686.112302376752</v>
       </c>
       <c r="C23" t="n">
-        <v>2043.001510175009</v>
+        <v>1275.987711690022</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.53758026807</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>4048.687652274017</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3664.927351409186</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>3264.283953578138</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2863.347280526228</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M24" t="n">
-        <v>552.4041844521919</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N24" t="n">
-        <v>1426.06227656381</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3481.275010501049</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="C25" t="n">
-        <v>3310.181638062765</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="D25" t="n">
-        <v>3150.686993385675</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E25" t="n">
-        <v>2989.776178253995</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F25" t="n">
-        <v>2825.145052364586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G25" t="n">
-        <v>2657.894661290129</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H25" t="n">
-        <v>2647.109666339355</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>2661.192215744566</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>2815.744543466803</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>3075.641643746864</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>3364.905700187357</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>3645.744482581607</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>3905.305092908081</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>4110.980533157694</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>4176.508562960204</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>4176.508562960204</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U25" t="n">
-        <v>3893.710415506328</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.710415506328</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W25" t="n">
-        <v>3893.710415506328</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X25" t="n">
-        <v>3893.710415506328</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="Y25" t="n">
-        <v>3668.974716895093</v>
+        <v>862.4253276531883</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2001.236424545407</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C26" t="n">
-        <v>2001.236424545407</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D26" t="n">
-        <v>1596.772494638468</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E26" t="n">
-        <v>1182.432279155364</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F26" t="n">
-        <v>761.4018671090519</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
         <v>41.76508562960205</v>
@@ -6224,22 +6226,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M26" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N26" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O26" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P26" t="n">
         <v>1767.09327468481</v>
@@ -6254,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y26" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
         <v>41.76508562960205</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.3981082979117</v>
+        <v>367.429305553252</v>
       </c>
       <c r="C28" t="n">
-        <v>810.3981082979117</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="D28" t="n">
-        <v>650.9034636208218</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
         <v>41.76508562960205</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1048.741970438228</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>1048.741970438228</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W28" t="n">
-        <v>1048.741970438228</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X28" t="n">
-        <v>810.3981082979117</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y28" t="n">
-        <v>810.3981082979117</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.050632634561</v>
+        <v>1281.648372469812</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.050632634561</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="D29" t="n">
-        <v>1208.050632634561</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E29" t="n">
         <v>871.5237817830823</v>
@@ -6461,28 +6463,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8507596625949</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N29" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6491,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>1208.050632634561</v>
+        <v>1691.869552134302</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L30" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M30" t="n">
-        <v>751.4208778585605</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N30" t="n">
-        <v>1268.263812524886</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O30" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.263917876656</v>
+        <v>1100.666128402532</v>
       </c>
       <c r="C31" t="n">
-        <v>362.1705454383725</v>
+        <v>929.5727559642482</v>
       </c>
       <c r="D31" t="n">
-        <v>202.6759007612826</v>
+        <v>770.0781112871582</v>
       </c>
       <c r="E31" t="n">
-        <v>41.76508562960205</v>
+        <v>609.1672961554777</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960205</v>
+        <v>444.536170266069</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
         <v>41.76508562960205</v>
@@ -6649,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U31" t="n">
-        <v>1048.817095773278</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V31" t="n">
-        <v>774.9313507128002</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W31" t="n">
-        <v>774.9313507128002</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X31" t="n">
-        <v>774.9313507128002</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.9636242707004</v>
+        <v>1288.365834796576</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1690.327927173125</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C32" t="n">
-        <v>1690.327927173125</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F32" t="n">
         <v>450.4933697367699</v>
@@ -6701,19 +6703,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O32" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P32" t="n">
         <v>1767.09327468481</v>
@@ -6728,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1690.327927173125</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1690.327927173125</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1690.327927173125</v>
+        <v>2075.946467825976</v>
       </c>
       <c r="X32" t="n">
-        <v>1690.327927173125</v>
+        <v>1675.303069994929</v>
       </c>
       <c r="Y32" t="n">
-        <v>1690.327927173125</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>81.91922121582792</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811262</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N33" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
         <v>2088.254281480102</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1382.235734070171</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C34" t="n">
-        <v>1211.142361631888</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D34" t="n">
-        <v>1051.647716954798</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E34" t="n">
-        <v>890.7369018231173</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F34" t="n">
-        <v>726.1057759337085</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W34" t="n">
-        <v>2002.981563155502</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X34" t="n">
-        <v>1794.671139075451</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="Y34" t="n">
-        <v>1569.935440464216</v>
+        <v>1292.094317759326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1695.988587952916</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.863997266186</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
         <v>41.76508562960205</v>
@@ -6938,19 +6940,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P35" t="n">
         <v>2088.254281480102</v>
@@ -6968,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>645.8534179918237</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L36" t="n">
-        <v>704.7239474634683</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M36" t="n">
-        <v>1221.566882129794</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O36" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
         <v>2088.254281480102</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>529.7163043368855</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C37" t="n">
-        <v>358.622931898602</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D37" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
         <v>41.76508562960205</v>
@@ -7129,16 +7131,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>1459.565235973608</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W37" t="n">
-        <v>1180.495571482482</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X37" t="n">
-        <v>942.1517093421652</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y37" t="n">
-        <v>717.4160107309299</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.033101815613</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="C38" t="n">
-        <v>1285.863997266186</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.863997266186</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>64.23159744172119</v>
       </c>
       <c r="G38" t="n">
         <v>41.76508562960205</v>
@@ -7178,16 +7180,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L38" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M38" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N38" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O39" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.9953472308603</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C40" t="n">
-        <v>335.9019747925768</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D40" t="n">
-        <v>335.9019747925768</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>174.9911596608962</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9911596608962</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>174.9911596608962</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
         <v>41.76508562960205</v>
@@ -7357,25 +7359,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U40" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0650117219859</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W40" t="n">
-        <v>506.9953472308603</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X40" t="n">
-        <v>506.9953472308603</v>
+        <v>1247.547401785535</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.9953472308603</v>
+        <v>1247.547401785535</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1695.988587952916</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C41" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
         <v>41.76508562960205</v>
@@ -7424,10 +7426,10 @@
         <v>1592.293889628578</v>
       </c>
       <c r="O41" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
         <v>2088.254281480102</v>
@@ -7451,10 +7453,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>158.3214934345126</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K42" t="n">
-        <v>158.3214934345126</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L42" t="n">
-        <v>158.3214934345126</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M42" t="n">
-        <v>675.1644281008379</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N42" t="n">
-        <v>1192.007362767163</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O42" t="n">
-        <v>1708.850297433488</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P42" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>683.6380236525417</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="C43" t="n">
-        <v>676.4091265223246</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="D43" t="n">
-        <v>516.9144818452346</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="E43" t="n">
-        <v>356.0036667135541</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="F43" t="n">
-        <v>191.3725408241454</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="G43" t="n">
-        <v>191.3725408241454</v>
+        <v>278.880459742779</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>129.2730045482356</v>
       </c>
       <c r="I43" t="n">
         <v>41.76508562960205</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U43" t="n">
-        <v>1145.223475107064</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V43" t="n">
-        <v>871.3377300465861</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="W43" t="n">
-        <v>871.3377300465861</v>
+        <v>684.4747129575521</v>
       </c>
       <c r="X43" t="n">
-        <v>871.3377300465861</v>
+        <v>446.1308508172355</v>
       </c>
       <c r="Y43" t="n">
-        <v>871.3377300465861</v>
+        <v>446.1308508172355</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>596.225513337818</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C44" t="n">
-        <v>596.225513337818</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D44" t="n">
-        <v>596.225513337818</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E44" t="n">
-        <v>596.225513337818</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>417.4634743327321</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L44" t="n">
-        <v>426.3909626105813</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M44" t="n">
-        <v>426.3909626105813</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N44" t="n">
-        <v>426.3909626105813</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O44" t="n">
-        <v>812.642214563296</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.330043794968</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1203.123559741827</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>946.0630680013373</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>596.225513337818</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W44" t="n">
-        <v>596.225513337818</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X44" t="n">
-        <v>596.225513337818</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y44" t="n">
-        <v>596.225513337818</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>31.21222238001735</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4634743327321</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N45" t="n">
-        <v>803.7147262854468</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.965978238161</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P45" t="n">
-        <v>1531.051599638238</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1186.074038399415</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1186.074038399415</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1186.074038399415</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>492.7140010185257</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>213.6443365274001</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>31.21222238001735</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L3" t="n">
-        <v>394.1192645454833</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8304,13 +8306,13 @@
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730677</v>
       </c>
       <c r="O6" t="n">
-        <v>558.7215717793172</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8468,13 +8470,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>494.5586588013271</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,7 +8540,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>205.1561293621962</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
@@ -8547,10 +8549,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>333.3534809699548</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
         <v>617.5489684328704</v>
@@ -8699,7 +8701,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
@@ -8711,7 +8713,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>72.04887768380563</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730677</v>
       </c>
       <c r="O12" t="n">
         <v>579.8150493700256</v>
@@ -8787,7 +8789,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
@@ -8936,19 +8938,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M15" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9240,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
@@ -9249,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>266.9965351298663</v>
       </c>
       <c r="P18" t="n">
-        <v>560.949698951924</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L20" t="n">
-        <v>104.7543677098773</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9483,22 +9485,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>550.1799853616671</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9638,25 +9640,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9723,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747686</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
@@ -9881,16 +9883,16 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P26" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9969,7 +9971,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>555.229727782121</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M29" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
         <v>579.627854108443</v>
@@ -10203,10 +10205,10 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793172</v>
       </c>
       <c r="P30" t="n">
-        <v>360.4692655976428</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10349,22 +10351,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10425,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>91.92897171537967</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
         <v>579.627854108443</v>
@@ -10440,7 +10442,7 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10586,22 +10588,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
@@ -10662,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>70.59911775623726</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M36" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
         <v>579.8150493700256</v>
@@ -10683,7 +10685,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10826,19 +10828,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M38" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>593.8823835359372</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10905,7 +10907,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M39" t="n">
         <v>579.627854108443</v>
@@ -10917,7 +10919,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11072,13 +11074,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>269.754811036119</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11136,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>169.1029840574854</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11151,16 +11153,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793172</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>104.5030629899652</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>398.7905657099514</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>319.8756664145143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>114.2620969667508</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22601,10 +22603,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22708,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>155.2683985869888</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>295.9050193496284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>204.6283446257529</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22850,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,10 +22947,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>124.1049897036892</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -22999,13 +23001,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>293.2084685777011</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>248.399960346403</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>50.54991588006452</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23258,19 +23260,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>12.0762540159551</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447347</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23482,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23500,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>310.4892854873887</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447347</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23707,19 +23709,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>274.7639934656065</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>10.06223633122443</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23798,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.366711323298858</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23953,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.46400199467317</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>252.7458724226361</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24023,19 +24025,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>208.2643186898283</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>105.7251922248152</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -24184,16 +24186,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>7.998408555527647</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>219.7964775375587</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>96.60443348087411</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.4342356413316</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24494,7 +24496,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>133.8367408472616</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>6.27656796985093</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>268.8734674985437</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>77.03523098530815</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24746,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.506424269048352</v>
       </c>
     </row>
     <row r="30">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>30.12847945292475</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24904,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.0602924474442</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>80.52721527178736</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>367.7379623385986</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>26.43728131980222</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25135,13 +25137,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>29.73310367966297</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.77593127592985</v>
+        <v>208.4908094371152</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25208,19 +25210,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25324,10 +25326,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25369,7 +25371,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>160.6641287957973</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>17.77593127592968</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>382.3991545720982</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25442,22 +25444,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>70.53872813385566</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.21756735161668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25691,7 +25693,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>9.771893862570664</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>162.2258305549857</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>28.54974570726989</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25874,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>165.2563622761858</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>63.66464702640974</v>
       </c>
     </row>
     <row r="45">
@@ -25998,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>89.24414791942208</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542382.1022329933</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542382.1022329933</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542382.1022329931</v>
+        <v>542382.1022329933</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600469.8034824787</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772275.900658457</v>
+        <v>542382.1022329935</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542382.1022329933</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542382.1022329931</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542382.1022329931</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542382.1022329933</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453353.213383279</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>133181.3099302736</v>
       </c>
       <c r="D2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="E2" t="n">
         <v>133181.3099302737</v>
       </c>
       <c r="F2" t="n">
+        <v>133181.3099302736</v>
+      </c>
+      <c r="G2" t="n">
         <v>133181.3099302737</v>
       </c>
-      <c r="G2" t="n">
-        <v>133181.3099302736</v>
-      </c>
       <c r="H2" t="n">
-        <v>147443.3843094463</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="I2" t="n">
-        <v>189626.3470367046</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="J2" t="n">
         <v>133181.3099302737</v>
@@ -26341,7 +26343,7 @@
         <v>133181.3099302737</v>
       </c>
       <c r="L2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="M2" t="n">
         <v>133181.3099302737</v>
@@ -26353,7 +26355,7 @@
         <v>133181.3099302737</v>
       </c>
       <c r="P2" t="n">
-        <v>111322.3517109386</v>
+        <v>133181.3099302737</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>10090.76744434242</v>
       </c>
       <c r="D4" t="n">
-        <v>10090.76744434242</v>
+        <v>10090.76744434243</v>
       </c>
       <c r="E4" t="n">
         <v>10090.76744434242</v>
       </c>
       <c r="F4" t="n">
-        <v>10090.76744434242</v>
+        <v>10090.76744434243</v>
       </c>
       <c r="G4" t="n">
         <v>10090.76744434242</v>
       </c>
       <c r="H4" t="n">
-        <v>11192.53540110507</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="I4" t="n">
-        <v>14451.23644406671</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="J4" t="n">
         <v>10090.76744434242</v>
@@ -26457,7 +26459,7 @@
         <v>10090.76744434242</v>
       </c>
       <c r="P4" t="n">
-        <v>8402.128113625799</v>
+        <v>10090.76744434242</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117234.0324856805</v>
+        <v>-117234.0324856804</v>
       </c>
       <c r="C6" t="n">
-        <v>57721.47740743362</v>
+        <v>57721.47740743365</v>
       </c>
       <c r="D6" t="n">
-        <v>57721.47740743368</v>
+        <v>57721.47740743365</v>
       </c>
       <c r="E6" t="n">
         <v>91349.07740743368</v>
       </c>
       <c r="F6" t="n">
+        <v>91349.07740743365</v>
+      </c>
+      <c r="G6" t="n">
         <v>91349.07740743368</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>91349.07740743368</v>
+      </c>
+      <c r="I6" t="n">
+        <v>91349.07740743368</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-45245.7233984613</v>
+      </c>
+      <c r="K6" t="n">
+        <v>91349.07740743368</v>
+      </c>
+      <c r="L6" t="n">
         <v>91349.07740743365</v>
       </c>
-      <c r="H6" t="n">
-        <v>60898.48925381935</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7942.363091685329</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91349.07740743374</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>91349.07740743371</v>
-      </c>
-      <c r="L6" t="n">
-        <v>91349.07740743368</v>
-      </c>
-      <c r="M6" t="n">
-        <v>91349.07740743368</v>
       </c>
       <c r="N6" t="n">
         <v>91349.07740743365</v>
       </c>
       <c r="O6" t="n">
-        <v>91349.07740743368</v>
+        <v>91349.07740743371</v>
       </c>
       <c r="P6" t="n">
-        <v>79198.93458849964</v>
+        <v>91349.07740743371</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -26829,7 +26831,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35024,13 +35026,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O6" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>400.9092955204429</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
@@ -35267,10 +35269,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>244.2170912967377</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
@@ -35419,7 +35421,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O12" t="n">
         <v>522.0635703700256</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
@@ -35656,19 +35658,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="P18" t="n">
-        <v>506.6900639491203</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="L20" t="n">
-        <v>9.26896964703243</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>492.4285063616672</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363513</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36601,16 +36603,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P26" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36689,7 +36691,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>500.9700927793172</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M29" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
         <v>522.0635703700256</v>
@@ -36923,10 +36925,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="P30" t="n">
-        <v>306.2096305948391</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,22 +37071,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>441.8756042977813</v>
+      </c>
+      <c r="O32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L32" t="n">
+      <c r="P32" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>441.8756042977812</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>40.55973291537967</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
         <v>522.0635703700256</v>
@@ -37160,7 +37162,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N35" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O35" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>14.48459394538821</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M36" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
         <v>522.0635703700256</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M39" t="n">
         <v>522.0635703700256</v>
@@ -37637,7 +37639,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37792,13 +37794,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>176.5650354103359</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
+        <v>500.9700927793172</v>
+      </c>
+      <c r="P42" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>9.017664927120396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>344.5309307071477</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437314.3269888569</v>
+        <v>431584.9311576302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6271630.922856246</v>
+        <v>6271630.922856245</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80.54362419335578</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -676,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>168.830903993995</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4216953850578</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.2139485182161</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>82.87037232320763</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.9104992901435</v>
+        <v>193.677505826948</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>62.62271064857725</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>294.7228925766561</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1578,7 +1578,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>13.99263448916667</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,13 +1587,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.7228925766561</v>
+        <v>230.738284988945</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>392.4208820523424</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>224.2419637676909</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4964215242403</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.37081582297198</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>46.22556813325669</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>65.48383042464032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>398.1205593123169</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>353.2164279930369</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.29526474944497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>116.9164035046649</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>131.6014687762869</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>163.1058707440497</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>207.0946774140841</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.4208820523424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135.4494077107873</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.235112516159102</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>12.18473551758451</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.3854280103017</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>197.6281584307293</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>266.2723283900668</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>22.24184669399795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.2839811962483</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>15.72496191388041</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>386.8650699901663</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.63283972944721</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4036,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.2626592949811</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="45">
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2088.254281480102</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.129690793372</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="D2" t="n">
-        <v>1596.772494638468</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.432279155364</v>
+        <v>1128.41181112661</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>707.3813990802978</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>298.65311497313</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>508.1659581184966</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184966</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.990387702721</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="C5" t="n">
-        <v>1165.865797015991</v>
+        <v>1455.923206740231</v>
       </c>
       <c r="D5" t="n">
-        <v>761.4018671090519</v>
+        <v>1455.923206740231</v>
       </c>
       <c r="E5" t="n">
-        <v>761.4018671090519</v>
+        <v>1041.582991257128</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>620.5525792108156</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>211.8242951036477</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
         <v>692.8507596625949</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
+        <v>1207.227134123859</v>
+      </c>
+      <c r="O6" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>172.2451057567575</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>439.0253456848109</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C8" t="n">
-        <v>439.0253456848109</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D8" t="n">
-        <v>439.0253456848109</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E8" t="n">
-        <v>439.0253456848109</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207041</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y8" t="n">
-        <v>553.0763550687942</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.76508562960205</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960205</v>
+        <v>509.4842788179327</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5044,22 +5044,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L11" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M11" t="n">
-        <v>1846.479361096332</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N11" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5074,19 +5074,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>740.1083749522213</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>339.4649771211738</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.1526093285881</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C13" t="n">
-        <v>777.1526093285881</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D13" t="n">
-        <v>777.1526093285881</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H13" t="n">
         <v>158.1111315252759</v>
@@ -5226,25 +5226,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1471.75728969437</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1232.208550671072</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>949.4104032171963</v>
       </c>
       <c r="V13" t="n">
-        <v>777.1526093285881</v>
+        <v>675.5246581567181</v>
       </c>
       <c r="W13" t="n">
-        <v>777.1526093285881</v>
+        <v>396.4549936655925</v>
       </c>
       <c r="X13" t="n">
-        <v>777.1526093285881</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.1526093285881</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.76508562960205</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
         <v>41.76508562960205</v>
@@ -5278,52 +5278,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W14" t="n">
-        <v>740.1083749522213</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="X14" t="n">
-        <v>339.4649771211738</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.76508562960205</v>
+        <v>1283.141268027134</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811266</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147452</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5463,25 +5463,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.891263925851</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W16" t="n">
-        <v>1485.891263925851</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>1485.891263925851</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D17" t="n">
-        <v>1267.908511128883</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5515,52 +5515,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N18" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
         <v>41.76508562960205</v>
@@ -5703,22 +5703,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U19" t="n">
-        <v>1384.772214130362</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V19" t="n">
-        <v>1384.772214130362</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W19" t="n">
-        <v>1384.772214130362</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.452596429109</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.452596429109</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1691.724233752687</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="C20" t="n">
-        <v>1281.599643065957</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="D20" t="n">
-        <v>877.1357131590178</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="E20" t="n">
-        <v>462.7954976759145</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960205</v>
+        <v>403.55319494428</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>403.55319494428</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>92.64469757199799</v>
       </c>
       <c r="I20" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2041.561788416207</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V20" t="n">
-        <v>1691.724233752687</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W20" t="n">
-        <v>1691.724233752687</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X20" t="n">
-        <v>1691.724233752687</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="Y20" t="n">
-        <v>1691.724233752687</v>
+        <v>824.5836069905924</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811266</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
         <v>2088.254281480102</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5937,25 +5937,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>1505.018698993239</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1265.469959969942</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>982.6718125160658</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>708.7860674555877</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>429.716402964462</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>191.3725408241454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1686.112302376752</v>
+        <v>893.629403119734</v>
       </c>
       <c r="C23" t="n">
-        <v>1275.987711690022</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D23" t="n">
-        <v>871.5237817830823</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
         <v>2088.254281480102</v>
@@ -6028,13 +6028,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959273</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>862.4253276531883</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C25" t="n">
-        <v>862.4253276531883</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
         <v>41.76508562960205</v>
@@ -6183,16 +6183,16 @@
         <v>862.4253276531883</v>
       </c>
       <c r="V25" t="n">
-        <v>862.4253276531883</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W25" t="n">
-        <v>862.4253276531883</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X25" t="n">
-        <v>862.4253276531883</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.4253276531883</v>
+        <v>191.3725408241454</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.033101815613</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.908511128883</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.908511128883</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E26" t="n">
-        <v>853.5682956457795</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F26" t="n">
-        <v>432.537883599467</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
         <v>41.76508562960205</v>
@@ -6226,52 +6226,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M26" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O26" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>1295.269316702666</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.254281480102</v>
+        <v>894.3326436507558</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N27" t="n">
-        <v>1075.450954962253</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O27" t="n">
-        <v>1592.293889628578</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>367.429305553252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
         <v>41.76508562960205</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.208572698848</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>779.8647105585317</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1281.648372469812</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C29" t="n">
-        <v>871.5237817830823</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D29" t="n">
-        <v>871.5237817830823</v>
+        <v>1069.242300573633</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>1069.242300573633</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>648.2118885273201</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M29" t="n">
         <v>1054.568412147452</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y29" t="n">
-        <v>1691.869552134302</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N30" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1100.666128402532</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>929.5727559642482</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>770.0781112871582</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>609.1672961554777</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>444.536170266069</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
         <v>41.76508562960205</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.365834796576</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1288.365834796576</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1288.365834796576</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1288.365834796576</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1265.081890330439</v>
+        <v>535.8485686398311</v>
       </c>
       <c r="C32" t="n">
-        <v>854.9572996437093</v>
+        <v>535.8485686398311</v>
       </c>
       <c r="D32" t="n">
-        <v>450.4933697367699</v>
+        <v>131.3846387328916</v>
       </c>
       <c r="E32" t="n">
-        <v>450.4933697367699</v>
+        <v>131.3846387328916</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>131.3846387328916</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>131.3846387328916</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
         <v>41.76508562960205</v>
@@ -6712,40 +6712,40 @@
         <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W32" t="n">
-        <v>2075.946467825976</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X32" t="n">
-        <v>1675.303069994929</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y32" t="n">
-        <v>1675.303069994929</v>
+        <v>946.0697483043206</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>81.91922121582792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>1054.568412147452</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
+        <v>1207.227134123859</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1207.227134123859</v>
+      </c>
+      <c r="O33" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2088.254281480102</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
         <v>41.76508562960205</v>
@@ -6888,22 +6888,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1292.094317759326</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1292.094317759326</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1292.094317759326</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>446.2290155365415</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C35" t="n">
-        <v>446.2290155365415</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
         <v>41.76508562960205</v>
@@ -6937,28 +6937,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1054.568412147452</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N35" t="n">
-        <v>1054.568412147452</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O35" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V35" t="n">
-        <v>1831.193789739612</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W35" t="n">
-        <v>1447.433488874781</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X35" t="n">
-        <v>1046.790091043734</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y35" t="n">
-        <v>645.8534179918237</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7254774811262</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
         <v>41.76508562960205</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.202034381698</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1023.132369890572</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>784.7885077502552</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.0528091390199</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.23159744172119</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C38" t="n">
-        <v>64.23159744172119</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D38" t="n">
-        <v>64.23159744172119</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>64.23159744172119</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>64.23159744172119</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
         <v>41.76508562960205</v>
@@ -7174,28 +7174,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M38" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N38" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7216,10 +7216,10 @@
         <v>875.3894501581206</v>
       </c>
       <c r="X38" t="n">
-        <v>875.3894501581206</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y38" t="n">
-        <v>474.4527771062106</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811262</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
         <v>41.76508562960205</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1247.547401785535</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1247.547401785535</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1287.260303845748</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C41" t="n">
-        <v>877.1357131590178</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="D41" t="n">
-        <v>877.1357131590178</v>
+        <v>471.9891010257159</v>
       </c>
       <c r="E41" t="n">
-        <v>462.7954976759145</v>
+        <v>57.64888554261256</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>57.64888554261256</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>57.64888554261256</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>57.64888554261256</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O41" t="n">
         <v>2088.254281480102</v>
@@ -7453,10 +7453,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.481483510237</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.481483510237</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O42" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.1308508172355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>446.1308508172355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>446.1308508172355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>446.1308508172355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>446.1308508172355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>278.880459742779</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>129.2730045482356</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
         <v>41.76508562960205</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>963.5443774486778</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5443774486778</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>684.4747129575521</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>446.1308508172355</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.1308508172355</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7651,46 +7651,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>1075.450954962253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M44" t="n">
-        <v>1592.293889628578</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N44" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O44" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V44" t="n">
-        <v>1473.706230480572</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W44" t="n">
-        <v>1089.945929615741</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X44" t="n">
-        <v>689.3025317846932</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y44" t="n">
         <v>352.673583001884</v>
@@ -7727,25 +7727,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L45" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.566882129794</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N45" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
-        <v>1221.566882129794</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
         <v>2088.254281480102</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>332.1773130131622</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,7 +8069,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>493.8215862770623</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730677</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>594.6194560602019</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,25 +8692,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>296.1630732760186</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>554.1634861730677</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>266.9965351298663</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>224.7351163062146</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
         <v>617.5489684328704</v>
@@ -9412,7 +9412,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O20" t="n">
         <v>93.18977562578313</v>
@@ -9421,10 +9421,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N21" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L23" t="n">
         <v>617.5489684328704</v>
@@ -9649,16 +9649,16 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9725,7 +9725,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>575.2569637637755</v>
@@ -9734,13 +9734,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P27" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N29" t="n">
         <v>614.9758611266449</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>558.7215717793172</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10360,7 +10360,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7878950544006</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O32" t="n">
         <v>615.2533459958087</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>91.92897171537967</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
@@ -10436,16 +10436,16 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>198.9610844237783</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>575.2569637637755</v>
@@ -10919,10 +10919,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
@@ -11068,13 +11068,13 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N41" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875377</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>558.7215717793172</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>72.04887768380563</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730677</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>319.8756664145143</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>138.9685084045641</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.06664624006515</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.9050193496284</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>224.9290400753516</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22852,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.2072187880168</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>293.2084685777011</v>
+        <v>212.4414620408966</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23029,19 +23029,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23272,7 +23272,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>342.0182906175189</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.2044137447347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>170.5352159497222</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2044137447347</v>
+        <v>166.1890213324458</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>17.77593127592979</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>172.6853425536999</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>55.46400199467317</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>35.11742923312558</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>208.2643186898283</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>119.0440200142485</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.998408555527647</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>52.8069167868257</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>96.60443348087411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>119.0440200142486</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>274.5174990915576</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24508,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>6.27656796985093</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24654,10 +24654,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>197.546323852012</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.506424269048352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>30.12847945292475</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>304.5642998824001</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -24979,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>367.7379623385986</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.43728131980222</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>208.4908094371152</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25171,7 +25171,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25207,13 +25207,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.874559219806486</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25405,10 +25405,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>382.3991545720982</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.53872813385566</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>69.76328314221716</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>9.771893862570664</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>28.54974570726989</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.66464702640974</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="45">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542382.1022329931</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542382.1022329931</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542382.1022329933</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542382.1022329931</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542382.1022329935</v>
+        <v>542382.1022329932</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542382.1022329932</v>
+        <v>542382.1022329931</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="C2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="D2" t="n">
         <v>133181.3099302736</v>
@@ -26328,7 +26328,7 @@
         <v>133181.3099302736</v>
       </c>
       <c r="G2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="H2" t="n">
         <v>133181.3099302737</v>
@@ -26349,10 +26349,10 @@
         <v>133181.3099302737</v>
       </c>
       <c r="N2" t="n">
+        <v>133181.3099302737</v>
+      </c>
+      <c r="O2" t="n">
         <v>133181.3099302736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>133181.3099302737</v>
       </c>
       <c r="P2" t="n">
         <v>133181.3099302737</v>
@@ -26423,13 +26423,13 @@
         <v>10090.76744434242</v>
       </c>
       <c r="D4" t="n">
-        <v>10090.76744434243</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="E4" t="n">
         <v>10090.76744434242</v>
       </c>
       <c r="F4" t="n">
-        <v>10090.76744434243</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="G4" t="n">
         <v>10090.76744434242</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117234.0324856804</v>
+        <v>-117911.5613450744</v>
       </c>
       <c r="C6" t="n">
-        <v>57721.47740743365</v>
+        <v>57043.94854803964</v>
       </c>
       <c r="D6" t="n">
-        <v>57721.47740743365</v>
+        <v>57043.94854803958</v>
       </c>
       <c r="E6" t="n">
-        <v>91349.07740743368</v>
+        <v>90671.54854803963</v>
       </c>
       <c r="F6" t="n">
-        <v>91349.07740743365</v>
+        <v>90671.5485480396</v>
       </c>
       <c r="G6" t="n">
-        <v>91349.07740743368</v>
+        <v>90671.5485480396</v>
       </c>
       <c r="H6" t="n">
-        <v>91349.07740743368</v>
+        <v>90671.54854803963</v>
       </c>
       <c r="I6" t="n">
-        <v>91349.07740743368</v>
+        <v>90671.54854803963</v>
       </c>
       <c r="J6" t="n">
-        <v>-45245.7233984613</v>
+        <v>-45923.25225785534</v>
       </c>
       <c r="K6" t="n">
-        <v>91349.07740743368</v>
+        <v>90671.54854803966</v>
       </c>
       <c r="L6" t="n">
-        <v>91349.07740743365</v>
+        <v>90671.5485480396</v>
       </c>
       <c r="M6" t="n">
-        <v>91349.07740743371</v>
+        <v>90671.54854803963</v>
       </c>
       <c r="N6" t="n">
-        <v>91349.07740743365</v>
+        <v>90671.54854803966</v>
       </c>
       <c r="O6" t="n">
-        <v>91349.07740743371</v>
+        <v>90671.5485480396</v>
       </c>
       <c r="P6" t="n">
-        <v>91349.07740743371</v>
+        <v>90671.54854803963</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>276.3515302285468</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L11" t="n">
+      <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M11" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N11" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N12" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="O12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O14" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O17" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O18" t="n">
-        <v>209.2450561298663</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
         <v>522.0635703700256</v>
@@ -36132,7 +36132,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="L23" t="n">
         <v>522.0635703700256</v>
@@ -36369,16 +36369,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O23" t="n">
-        <v>176.5650354103359</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>522.0635703700256</v>
@@ -36454,13 +36454,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P27" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N29" t="n">
         <v>522.0635703700256</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N30" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O30" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>441.8756042977813</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O32" t="n">
         <v>522.0635703700256</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.55973291537967</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
@@ -37156,16 +37156,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="P33" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N33" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N38" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O38" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>522.0635703700256</v>
@@ -37639,10 +37639,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N41" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
